--- a/remote_companies_with_python_jobs_cached.xlsx
+++ b/remote_companies_with_python_jobs_cached.xlsx
@@ -5440,9 +5440,13 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr"/>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>https://github.com/careers</t>
+        </is>
+      </c>
       <c r="E160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -6506,9 +6510,13 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr"/>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>https://www.intuit.com/careers</t>
+        </is>
+      </c>
       <c r="E194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>

--- a/remote_companies_with_python_jobs_cached.xlsx
+++ b/remote_companies_with_python_jobs_cached.xlsx
@@ -4039,13 +4039,9 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://doist.com/careers</t>
-        </is>
-      </c>
+      <c r="D115" t="inlineStr"/>
       <c r="E115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5440,13 +5436,9 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://github.com/careers</t>
-        </is>
-      </c>
+      <c r="D160" t="inlineStr"/>
       <c r="E160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -9464,9 +9456,13 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D288" t="inlineStr"/>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>https://corporate.payu.com/careers</t>
+        </is>
+      </c>
       <c r="E288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>

--- a/remote_companies_with_python_jobs_cached.xlsx
+++ b/remote_companies_with_python_jobs_cached.xlsx
@@ -4039,9 +4039,13 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://doist.com/careers</t>
+        </is>
+      </c>
       <c r="E115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5436,9 +5440,13 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr"/>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>https://github.com/careers</t>
+        </is>
+      </c>
       <c r="E160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -7727,11 +7735,11 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['senior python full-stack developerzaragoza, esspain (https://www.luxoft.com/careers/jobs/senior-python-full-stack-developer-18365)', 'senior python full-stack developervalencia, esspain (https://www.luxoft.com/careers/jobs/senior-python-full-stack-developer-18364)', 'senior python full-stack developermadridspain (https://www.luxoft.com/careers/jobs/senior-python-full-stack-developer-18363)', 'senior python full-stack developerleon, esspain (https://www.luxoft.com/careers/jobs/senior-python-full-stack-developer-18362)', 'senior python full-stack developerbarcelona, esspain (https://www.luxoft.com/careers/jobs/senior-python-full-stack-developer-18361)', 'senior python full-stack developerpythonzaragoza, esspain (https://www.luxoft.com/careers/jobs/senior-python-full-stack-developer-18365)', 'senior python full-stack developerpythonvalencia, esspain (https://www.luxoft.com/careers/jobs/senior-python-full-stack-developer-18364)', 'senior python full-stack developerpythonmadridspain (https://www.luxoft.com/careers/jobs/senior-python-full-stack-developer-18363)', 'senior python full-stack developerpythonleon, esspain (https://www.luxoft.com/careers/jobs/senior-python-full-stack-developer-18362)', 'senior python full-stack developerpythonbarcelona, esspain (https://www.luxoft.com/careers/jobs/senior-python-full-stack-developer-18361)', 'senior python full-stack developerpythonavilesspain (https://www.luxoft.com/careers/jobs/senior-python-full-stack-developer-18360)']</t>
         </is>
       </c>
       <c r="G233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -8481,17 +8489,21 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D257" t="inlineStr"/>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>https://mux.com/jobs</t>
+        </is>
+      </c>
       <c r="E257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['python (https://mux.com/jobs/video-for/python)']</t>
         </is>
       </c>
       <c r="G257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -9456,13 +9468,9 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>https://corporate.payu.com/careers</t>
-        </is>
-      </c>
+      <c r="D288" t="inlineStr"/>
       <c r="E288" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -10960,9 +10968,13 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D336" t="inlineStr"/>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>https://scopicsoftware.com/careers</t>
+        </is>
+      </c>
       <c r="E336" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>
@@ -13210,11 +13222,11 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>['staff data analyst, productremote - united statesread more (https://vercel.com/careers/careers/staff-data-analyst-product-us-5399155004)']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G408" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
@@ -13448,9 +13460,13 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D416" t="inlineStr"/>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>https://whitespectre.com/careers</t>
+        </is>
+      </c>
       <c r="E416" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F416" t="inlineStr">
         <is>

--- a/remote_companies_with_python_jobs_cached.xlsx
+++ b/remote_companies_with_python_jobs_cached.xlsx
@@ -5535,13 +5535,9 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://glennwebsitedesign.com/recruitment</t>
-        </is>
-      </c>
+      <c r="D163" t="inlineStr"/>
       <c r="E163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -7735,11 +7731,11 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>['senior python full-stack developerzaragoza, esspain (https://www.luxoft.com/careers/jobs/senior-python-full-stack-developer-18365)', 'senior python full-stack developervalencia, esspain (https://www.luxoft.com/careers/jobs/senior-python-full-stack-developer-18364)', 'senior python full-stack developermadridspain (https://www.luxoft.com/careers/jobs/senior-python-full-stack-developer-18363)', 'senior python full-stack developerleon, esspain (https://www.luxoft.com/careers/jobs/senior-python-full-stack-developer-18362)', 'senior python full-stack developerbarcelona, esspain (https://www.luxoft.com/careers/jobs/senior-python-full-stack-developer-18361)', 'senior python full-stack developerpythonzaragoza, esspain (https://www.luxoft.com/careers/jobs/senior-python-full-stack-developer-18365)', 'senior python full-stack developerpythonvalencia, esspain (https://www.luxoft.com/careers/jobs/senior-python-full-stack-developer-18364)', 'senior python full-stack developerpythonmadridspain (https://www.luxoft.com/careers/jobs/senior-python-full-stack-developer-18363)', 'senior python full-stack developerpythonleon, esspain (https://www.luxoft.com/careers/jobs/senior-python-full-stack-developer-18362)', 'senior python full-stack developerpythonbarcelona, esspain (https://www.luxoft.com/careers/jobs/senior-python-full-stack-developer-18361)', 'senior python full-stack developerpythonavilesspain (https://www.luxoft.com/careers/jobs/senior-python-full-stack-developer-18360)']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -8652,7 +8648,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>['senior python engineer  (remote, india)permanent (https://job-boards.greenhouse.io/nearform/jobs/5927523003)', 'senior python genai developer (contract, brazil, remote)contract (https://job-boards.greenhouse.io/nearform/jobs/6620038003)', 'senior python genai developer (perm, canada, remote)permanent (https://job-boards.greenhouse.io/nearform/jobs/6620022003)', 'senior python software engineer (contract, poland, remote)poland (https://job-boards.greenhouse.io/nearform/jobs/6664605003)', 'senior python software engineer (contract, romania, remote)romania (https://job-boards.greenhouse.io/nearform/jobs/6520737003)', 'senior python software engineer (perm, italy, remote)permanent (https://job-boards.greenhouse.io/nearform/jobs/6520733003)', 'senior python software engineer (perm, uk, remote)uk (https://job-boards.greenhouse.io/nearform/jobs/6678114003)']</t>
+          <t>['senior python genai developer (contract, brazil)brazil (https://job-boards.greenhouse.io/nearform/jobs/6620038003)', 'senior python genai developer (perm, canada)canada (https://job-boards.greenhouse.io/nearform/jobs/6620022003)', 'senior python software engineer (contract, poland)poland (https://job-boards.greenhouse.io/nearform/jobs/6664605003)', 'senior python software engineer (contract, romania)romania (https://job-boards.greenhouse.io/nearform/jobs/6520737003)', 'senior python software engineer (perm, ireland)ireland (https://job-boards.greenhouse.io/nearform/jobs/7497040003)', 'senior python software engineer (perm, italy)italy (https://job-boards.greenhouse.io/nearform/jobs/6520733003)', 'senior python software engineer (perm, uk)uk (https://job-boards.greenhouse.io/nearform/jobs/6678114003)']</t>
         </is>
       </c>
       <c r="G262" t="b">
@@ -9468,9 +9464,13 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D288" t="inlineStr"/>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>https://corporate.payu.com/careers</t>
+        </is>
+      </c>
       <c r="E288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -10968,13 +10968,9 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>https://scopicsoftware.com/careers</t>
-        </is>
-      </c>
+      <c r="D336" t="inlineStr"/>
       <c r="E336" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>

--- a/remote_companies_with_python_jobs_cached.xlsx
+++ b/remote_companies_with_python_jobs_cached.xlsx
@@ -5535,9 +5535,13 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr"/>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>https://glennwebsitedesign.com/recruitment</t>
+        </is>
+      </c>
       <c r="E163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -7731,11 +7735,11 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['oracle data analystlondonunited kingdom of great britain and northern ireland (https://www.luxoft.com/careers/jobs/oracle-data-analyst-18518)', 'oracle data analystbengaluruindia (https://www.luxoft.com/careers/jobs/oracle-data-analyst-18517)', 'oracle data analystbusiness analysislondonunited kingdom of great britain and northern ireland (https://www.luxoft.com/careers/jobs/oracle-data-analyst-18518)', 'oracle data analystbusiness analysisbengaluruindia (https://www.luxoft.com/careers/jobs/oracle-data-analyst-18517)']</t>
         </is>
       </c>
       <c r="G233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -8425,7 +8429,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>https://mongodb.com/careers</t>
+          <t>https://mongodb.com/jobs</t>
         </is>
       </c>
       <c r="E255" t="b">
@@ -9464,13 +9468,9 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>https://corporate.payu.com/careers</t>
-        </is>
-      </c>
+      <c r="D288" t="inlineStr"/>
       <c r="E288" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -10968,9 +10968,13 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D336" t="inlineStr"/>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>https://scopicsoftware.com/careers</t>
+        </is>
+      </c>
       <c r="E336" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>
@@ -11621,13 +11625,9 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t>https://www.skyrocketventures.com/careers</t>
-        </is>
-      </c>
+      <c r="D357" t="inlineStr"/>
       <c r="E357" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F357" t="inlineStr">
         <is>
@@ -13631,11 +13631,11 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>['backend software engineer (php/python) (https://saasglobal.teamtailor.com/en-GB/jobs/6282599-backend-software-engineer-php-python)']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G421" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">

--- a/remote_companies_with_python_jobs_cached.xlsx
+++ b/remote_companies_with_python_jobs_cached.xlsx
@@ -3636,7 +3636,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>['python for data sciencepython for data science (https://datasciencedojo.com/python-for-data-science/)', 'python for data science (https://datasciencedojo.com/python-for-data-science/)']</t>
+          <t>['python for data science (https://datasciencedojo.com/data-science-bootcamp/)', 'python for data science (https://datasciencedojo.com/python-for-data-science/)']</t>
         </is>
       </c>
       <c r="G102" t="b">
@@ -6002,21 +6002,17 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://www.honeybadger.io/careers</t>
-        </is>
-      </c>
+      <c r="D178" t="inlineStr"/>
       <c r="E178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>['python (https://www.honeybadger.io/careers/for/python/)', 'python (https://www.honeybadger.io/careers/for/python/)']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -7735,11 +7731,11 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>['oracle data analystlondonunited kingdom of great britain and northern ireland (https://www.luxoft.com/careers/jobs/oracle-data-analyst-18518)', 'oracle data analystbengaluruindia (https://www.luxoft.com/careers/jobs/oracle-data-analyst-18517)', 'oracle data analystbusiness analysislondonunited kingdom of great britain and northern ireland (https://www.luxoft.com/careers/jobs/oracle-data-analyst-18518)', 'oracle data analystbusiness analysisbengaluruindia (https://www.luxoft.com/careers/jobs/oracle-data-analyst-18517)']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -8429,7 +8425,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>https://mongodb.com/jobs</t>
+          <t>https://mongodb.com/careers</t>
         </is>
       </c>
       <c r="E255" t="b">
@@ -11625,9 +11621,13 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D357" t="inlineStr"/>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>https://www.skyrocketventures.com/careers</t>
+        </is>
+      </c>
       <c r="E357" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F357" t="inlineStr">
         <is>

--- a/remote_companies_with_python_jobs_cached.xlsx
+++ b/remote_companies_with_python_jobs_cached.xlsx
@@ -4636,11 +4636,11 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>['senior data scientist, productbrooklyn, brooklyn heights, new york, united states, 11201analytics (https://careers.etsy.com/jobs/senior-data-scientist-product-brooklyn-new-york-united-states)']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -6002,17 +6002,21 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr"/>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>https://www.honeybadger.io/careers</t>
+        </is>
+      </c>
       <c r="E178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['python (https://www.honeybadger.io/careers/for/python/)', 'python (https://www.honeybadger.io/careers/for/python/)']</t>
         </is>
       </c>
       <c r="G178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -7731,11 +7735,11 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['regular support network engineer with automation (python)lisbonportugal (https://www.luxoft.com/careers/jobs/regular-support-network-engineer-with-automation-python-18607)', 'regular support network engineer with automation (python)belgradeserbia (https://www.luxoft.com/careers/jobs/regular-support-network-engineer-with-automation-python-18606)', 'senior software engineer (python, java)belgradeserbia (https://www.luxoft.com/careers/jobs/senior-software-engineer-python-java-18605)', 'senior software engineer (python, java)barcelona, esspain (https://www.luxoft.com/careers/jobs/senior-software-engineer-python-java-18604)', 'regular support network engineer with automation (python)automated testing otherslisbonportugal (https://www.luxoft.com/careers/jobs/regular-support-network-engineer-with-automation-python-18607)', 'regular support network engineer with automation (python)automated testing othersbelgradeserbia (https://www.luxoft.com/careers/jobs/regular-support-network-engineer-with-automation-python-18606)', 'senior software engineer (python, java)javabelgradeserbia (https://www.luxoft.com/careers/jobs/senior-software-engineer-python-java-18605)', 'senior software engineer (python, java)javabarcelona, esspain (https://www.luxoft.com/careers/jobs/senior-software-engineer-python-java-18604)']</t>
         </is>
       </c>
       <c r="G233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -8648,7 +8652,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>['senior python genai developer (contract, brazil)brazil (https://job-boards.greenhouse.io/nearform/jobs/6620038003)', 'senior python genai developer (perm, canada)canada (https://job-boards.greenhouse.io/nearform/jobs/6620022003)', 'senior python software engineer (contract, poland)poland (https://job-boards.greenhouse.io/nearform/jobs/6664605003)', 'senior python software engineer (contract, romania)romania (https://job-boards.greenhouse.io/nearform/jobs/6520737003)', 'senior python software engineer (perm, ireland)ireland (https://job-boards.greenhouse.io/nearform/jobs/7497040003)', 'senior python software engineer (perm, italy)italy (https://job-boards.greenhouse.io/nearform/jobs/6520733003)', 'senior python software engineer (perm, uk)uk (https://job-boards.greenhouse.io/nearform/jobs/6678114003)']</t>
+          <t>['senior python genai developer (perm, canada)canada (https://job-boards.greenhouse.io/nearform/jobs/6620022003)', 'senior python software engineer (contract, poland)poland (https://job-boards.greenhouse.io/nearform/jobs/6664605003)', 'senior python software engineer (contract, romania)romania (https://job-boards.greenhouse.io/nearform/jobs/6520737003)', 'senior python software engineer (perm, ireland)ireland (https://job-boards.greenhouse.io/nearform/jobs/7497040003)', 'senior python software engineer (perm, italy)italy (https://job-boards.greenhouse.io/nearform/jobs/6520733003)', 'senior python software engineer (perm, uk)uk (https://job-boards.greenhouse.io/nearform/jobs/6678114003)']</t>
         </is>
       </c>
       <c r="G262" t="b">

--- a/remote_companies_with_python_jobs_cached.xlsx
+++ b/remote_companies_with_python_jobs_cached.xlsx
@@ -6002,21 +6002,17 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://www.honeybadger.io/careers</t>
-        </is>
-      </c>
+      <c r="D178" t="inlineStr"/>
       <c r="E178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>['python (https://www.honeybadger.io/careers/for/python/)', 'python (https://www.honeybadger.io/careers/for/python/)']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -9964,13 +9960,9 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>https://questdb.io/careers</t>
-        </is>
-      </c>
+      <c r="D304" t="inlineStr"/>
       <c r="E304" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -13526,13 +13518,9 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D418" t="inlineStr">
-        <is>
-          <t>https://wildbit.com/jobs</t>
-        </is>
-      </c>
+      <c r="D418" t="inlineStr"/>
       <c r="E418" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F418" t="inlineStr">
         <is>

--- a/remote_companies_with_python_jobs_cached.xlsx
+++ b/remote_companies_with_python_jobs_cached.xlsx
@@ -6002,17 +6002,21 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr"/>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>https://www.honeybadger.io/careers</t>
+        </is>
+      </c>
       <c r="E178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['python (https://www.honeybadger.io/careers/for/python/)', 'python (https://www.honeybadger.io/careers/for/python/)']</t>
         </is>
       </c>
       <c r="G178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -13518,9 +13522,13 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D418" t="inlineStr"/>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>https://wildbit.com/jobs</t>
+        </is>
+      </c>
       <c r="E418" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F418" t="inlineStr">
         <is>

--- a/remote_companies_with_python_jobs_cached.xlsx
+++ b/remote_companies_with_python_jobs_cached.xlsx
@@ -4283,13 +4283,9 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://edify.cr/careers</t>
-        </is>
-      </c>
+      <c r="D123" t="inlineStr"/>
       <c r="E123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -6002,21 +5998,17 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://www.honeybadger.io/careers</t>
-        </is>
-      </c>
+      <c r="D178" t="inlineStr"/>
       <c r="E178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>['python (https://www.honeybadger.io/careers/for/python/)', 'python (https://www.honeybadger.io/careers/for/python/)']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -7735,11 +7727,11 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>['regular support network engineer with automation (python)lisbonportugal (https://www.luxoft.com/careers/jobs/regular-support-network-engineer-with-automation-python-18607)', 'regular support network engineer with automation (python)belgradeserbia (https://www.luxoft.com/careers/jobs/regular-support-network-engineer-with-automation-python-18606)', 'senior software engineer (python, java)belgradeserbia (https://www.luxoft.com/careers/jobs/senior-software-engineer-python-java-18605)', 'senior software engineer (python, java)barcelona, esspain (https://www.luxoft.com/careers/jobs/senior-software-engineer-python-java-18604)', 'regular support network engineer with automation (python)automated testing otherslisbonportugal (https://www.luxoft.com/careers/jobs/regular-support-network-engineer-with-automation-python-18607)', 'regular support network engineer with automation (python)automated testing othersbelgradeserbia (https://www.luxoft.com/careers/jobs/regular-support-network-engineer-with-automation-python-18606)', 'senior software engineer (python, java)javabelgradeserbia (https://www.luxoft.com/careers/jobs/senior-software-engineer-python-java-18605)', 'senior software engineer (python, java)javabarcelona, esspain (https://www.luxoft.com/careers/jobs/senior-software-engineer-python-java-18604)']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -9964,9 +9956,13 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D304" t="inlineStr"/>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>https://questdb.io/careers</t>
+        </is>
+      </c>
       <c r="E304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -13274,13 +13270,9 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D410" t="inlineStr">
-        <is>
-          <t>https://viperdev.io/jobs</t>
-        </is>
-      </c>
+      <c r="D410" t="inlineStr"/>
       <c r="E410" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F410" t="inlineStr">
         <is>
@@ -13522,13 +13514,9 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D418" t="inlineStr">
-        <is>
-          <t>https://wildbit.com/jobs</t>
-        </is>
-      </c>
+      <c r="D418" t="inlineStr"/>
       <c r="E418" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F418" t="inlineStr">
         <is>

--- a/remote_companies_with_python_jobs_cached.xlsx
+++ b/remote_companies_with_python_jobs_cached.xlsx
@@ -4632,11 +4632,11 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['senior data scientist, seller analyticsciudad de méxico, cdmx, mexico city, mexico, 06500analytics (https://careers.etsy.com/jobs/senior-data-scientist-seller-analytics-cdmx-mexico-city-mexico)']</t>
         </is>
       </c>
       <c r="G134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -5998,17 +5998,21 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr"/>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>https://www.honeybadger.io/careers</t>
+        </is>
+      </c>
       <c r="E178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['python (https://www.honeybadger.io/careers/for/python/)', 'python (https://www.honeybadger.io/careers/for/python/)']</t>
         </is>
       </c>
       <c r="G178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -9460,9 +9464,13 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D288" t="inlineStr"/>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>https://corporate.payu.com/careers</t>
+        </is>
+      </c>
       <c r="E288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -13270,9 +13278,13 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D410" t="inlineStr"/>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>https://viperdev.io/jobs</t>
+        </is>
+      </c>
       <c r="E410" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F410" t="inlineStr">
         <is>

--- a/remote_companies_with_python_jobs_cached.xlsx
+++ b/remote_companies_with_python_jobs_cached.xlsx
@@ -4903,9 +4903,13 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>https://fetlife.com/jobs</t>
+        </is>
+      </c>
       <c r="E143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -8485,21 +8489,17 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>https://mux.com/jobs</t>
-        </is>
-      </c>
+      <c r="D257" t="inlineStr"/>
       <c r="E257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>['python (https://mux.com/jobs/video-for/python)']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -9121,13 +9121,9 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>https://www.optoro.com/careers</t>
-        </is>
-      </c>
+      <c r="D277" t="inlineStr"/>
       <c r="E277" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -10061,7 +10057,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>https://rackspace.com/careers</t>
+          <t>https://rackspace.com/jobs</t>
         </is>
       </c>
       <c r="E307" t="b">
@@ -13526,9 +13522,13 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D418" t="inlineStr"/>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>https://wildbit.com/jobs</t>
+        </is>
+      </c>
       <c r="E418" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F418" t="inlineStr">
         <is>

--- a/remote_companies_with_python_jobs_cached.xlsx
+++ b/remote_companies_with_python_jobs_cached.xlsx
@@ -4632,7 +4632,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>['senior data scientist, seller analyticsciudad de méxico, cdmx, mexico city, mexico, 06500analytics (https://careers.etsy.com/jobs/senior-data-scientist-seller-analytics-cdmx-mexico-city-mexico)']</t>
+          <t>['staff data scientist, marketingremote address, united kingdomanalytics (https://careers.etsy.com/jobs/staff-data-scientist-marketing-united-kingdom)', 'senior data scientist, seller analyticsciudad de méxico, cdmx, mexico city, mexico, 06500analytics (https://careers.etsy.com/jobs/senior-data-scientist-seller-analytics-cdmx-mexico-city-mexico)']</t>
         </is>
       </c>
       <c r="G134" t="b">
@@ -6002,21 +6002,17 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://www.honeybadger.io/careers</t>
-        </is>
-      </c>
+      <c r="D178" t="inlineStr"/>
       <c r="E178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>['python (https://www.honeybadger.io/careers/for/python/)', 'python (https://www.honeybadger.io/careers/for/python/)']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -7735,11 +7731,11 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['senior python developerremote ukraineukraine (https://www.luxoft.com/careers/jobs/senior-python-developer-18766)', 'senior python developerpythonremote ukraineukraine (https://www.luxoft.com/careers/jobs/senior-python-developer-18766)', 'senior python//ai engineerpythonremote ukraineukraine (https://www.luxoft.com/careers/jobs/senior-pythonai-engineer-18765)']</t>
         </is>
       </c>
       <c r="G233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -8648,7 +8644,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>['senior python genai developer (perm, canada)canada (https://job-boards.greenhouse.io/nearform/jobs/6620022003)', 'senior python software engineer (contract, poland)poland (https://job-boards.greenhouse.io/nearform/jobs/6664605003)', 'senior python software engineer (contract, romania)romania (https://job-boards.greenhouse.io/nearform/jobs/6520737003)', 'senior python software engineer (perm, ireland)ireland (https://job-boards.greenhouse.io/nearform/jobs/7497040003)', 'senior python software engineer (perm, italy)italy (https://job-boards.greenhouse.io/nearform/jobs/6520733003)', 'senior python software engineer (perm, uk)uk (https://job-boards.greenhouse.io/nearform/jobs/6678114003)']</t>
+          <t>['senior python software engineer (contract, poland)poland (https://job-boards.greenhouse.io/nearform/jobs/6664605003)', 'senior python software engineer (contract, romania)romania (https://job-boards.greenhouse.io/nearform/jobs/6520737003)', 'senior python software engineer (perm, ireland)ireland (https://job-boards.greenhouse.io/nearform/jobs/7497040003)', 'senior python software engineer (perm, italy)italy (https://job-boards.greenhouse.io/nearform/jobs/6520733003)', 'senior python software engineer (perm, uk)uk (https://job-boards.greenhouse.io/nearform/jobs/6678114003)']</t>
         </is>
       </c>
       <c r="G262" t="b">
@@ -10057,7 +10053,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>https://rackspace.com/jobs</t>
+          <t>https://rackspace.com/careers</t>
         </is>
       </c>
       <c r="E307" t="b">

--- a/remote_companies_with_python_jobs_cached.xlsx
+++ b/remote_companies_with_python_jobs_cached.xlsx
@@ -4130,13 +4130,9 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://drupaljedi.com/careers</t>
-        </is>
-      </c>
+      <c r="D118" t="inlineStr"/>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -6002,17 +5998,21 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr"/>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>https://www.honeybadger.io/careers</t>
+        </is>
+      </c>
       <c r="E178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['python (https://www.honeybadger.io/careers/for/python/)', 'python (https://www.honeybadger.io/careers/for/python/)']</t>
         </is>
       </c>
       <c r="G178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -7731,11 +7731,11 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>['senior python developerremote ukraineukraine (https://www.luxoft.com/careers/jobs/senior-python-developer-18766)', 'senior python developerpythonremote ukraineukraine (https://www.luxoft.com/careers/jobs/senior-python-developer-18766)', 'senior python//ai engineerpythonremote ukraineukraine (https://www.luxoft.com/careers/jobs/senior-pythonai-engineer-18765)']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -9456,13 +9456,9 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>https://corporate.payu.com/careers</t>
-        </is>
-      </c>
+      <c r="D288" t="inlineStr"/>
       <c r="E288" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -10960,13 +10956,9 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>https://scopicsoftware.com/careers</t>
-        </is>
-      </c>
+      <c r="D336" t="inlineStr"/>
       <c r="E336" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>

--- a/remote_companies_with_python_jobs_cached.xlsx
+++ b/remote_companies_with_python_jobs_cached.xlsx
@@ -4130,9 +4130,13 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://drupaljedi.com/careers</t>
+        </is>
+      </c>
       <c r="E118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -8425,7 +8429,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>https://mongodb.com/careers</t>
+          <t>https://mongodb.com/jobs</t>
         </is>
       </c>
       <c r="E255" t="b">
@@ -10512,7 +10516,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>https://remotemore.com/careers</t>
+          <t>https://remotemore.com/jobs</t>
         </is>
       </c>
       <c r="E322" t="b">
@@ -10956,9 +10960,13 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D336" t="inlineStr"/>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>https://scopicsoftware.com/careers</t>
+        </is>
+      </c>
       <c r="E336" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>

--- a/remote_companies_with_python_jobs_cached.xlsx
+++ b/remote_companies_with_python_jobs_cached.xlsx
@@ -6002,21 +6002,17 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://www.honeybadger.io/careers</t>
-        </is>
-      </c>
+      <c r="D178" t="inlineStr"/>
       <c r="E178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>['python (https://www.honeybadger.io/careers/for/python/)', 'python (https://www.honeybadger.io/careers/for/python/)']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -8429,7 +8425,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>https://mongodb.com/jobs</t>
+          <t>https://mongodb.com/careers</t>
         </is>
       </c>
       <c r="E255" t="b">
@@ -10516,7 +10512,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>https://remotemore.com/jobs</t>
+          <t>https://remotemore.com/careers</t>
         </is>
       </c>
       <c r="E322" t="b">
@@ -10960,13 +10956,9 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>https://scopicsoftware.com/careers</t>
-        </is>
-      </c>
+      <c r="D336" t="inlineStr"/>
       <c r="E336" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>

--- a/remote_companies_with_python_jobs_cached.xlsx
+++ b/remote_companies_with_python_jobs_cached.xlsx
@@ -3188,13 +3188,9 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://conversio.com/careers</t>
-        </is>
-      </c>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -5242,13 +5238,9 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://folotop.com/careers</t>
-        </is>
-      </c>
+      <c r="D154" t="inlineStr"/>
       <c r="E154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -6002,17 +5994,21 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr"/>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>https://www.honeybadger.io/careers</t>
+        </is>
+      </c>
       <c r="E178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['python (https://www.honeybadger.io/careers/for/python/)', 'python (https://www.honeybadger.io/careers/for/python/)']</t>
         </is>
       </c>
       <c r="G178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -7469,13 +7465,9 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>https://lionsher.com/careers/careers</t>
-        </is>
-      </c>
+      <c r="D225" t="inlineStr"/>
       <c r="E225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -9580,21 +9572,17 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>https://platform.sh/careers</t>
-        </is>
-      </c>
+      <c r="D292" t="inlineStr"/>
       <c r="E292" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>['python (https://platform.sh/careers/python/)']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G292" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -10576,13 +10564,9 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D324" t="inlineStr">
-        <is>
-          <t>https://replit.com/careers</t>
-        </is>
-      </c>
+      <c r="D324" t="inlineStr"/>
       <c r="E324" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
@@ -12328,13 +12312,9 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D380" t="inlineStr">
-        <is>
-          <t>https://taskade.com/jobs</t>
-        </is>
-      </c>
+      <c r="D380" t="inlineStr"/>
       <c r="E380" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F380" t="inlineStr">
         <is>

--- a/remote_companies_with_python_jobs_cached.xlsx
+++ b/remote_companies_with_python_jobs_cached.xlsx
@@ -3188,9 +3188,13 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://conversio.com/careers</t>
+        </is>
+      </c>
       <c r="E88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -3764,11 +3768,11 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['data analyst, financemultiple locationsproduct analyticsfulltime (http://www.deel.com/careers/careers/position/?ashby_jid=4d901a14-09e5-4350-943f-9a788071a306)']</t>
         </is>
       </c>
       <c r="G106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -4628,7 +4632,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>['staff data scientist, marketingremote address, united kingdomanalytics (https://careers.etsy.com/jobs/staff-data-scientist-marketing-united-kingdom)', 'senior data scientist, seller analyticsciudad de méxico, cdmx, mexico city, mexico, 06500analytics (https://careers.etsy.com/jobs/senior-data-scientist-seller-analytics-cdmx-mexico-city-mexico)']</t>
+          <t>['staff data scientist, marketingremote address, united kingdomanalytics (https://careers.etsy.com/jobs/staff-data-scientist-marketing-united-kingdom)']</t>
         </is>
       </c>
       <c r="G134" t="b">
@@ -5238,9 +5242,13 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr"/>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>https://folotop.com/careers</t>
+        </is>
+      </c>
       <c r="E154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -5376,7 +5384,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>['python programming (https://generalassemb.ly/careers/students/courses/python-programming-short-course)', 'ai for data analysis (https://generalassemb.ly/careers/students/courses/ai-for-data-analysis-and-visualizations-workshop)', 'programming with python fundamentals (https://generalassemb.ly/careers/students/courses/programming-with-python-fundamentals-workshop)']</t>
+          <t>['ai for data analysis (https://generalassemb.ly/careers/students/courses/ai-for-data-analysis-and-visualizations-workshop)', 'programming with python fundamentals (https://generalassemb.ly/careers/students/courses/programming-with-python-fundamentals-workshop)', 'python programming (https://generalassemb.ly/careers/students/courses/python-programming-short-course)']</t>
         </is>
       </c>
       <c r="G158" t="b">
@@ -6027,9 +6035,13 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr"/>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>https://honeycomb.tv/careers</t>
+        </is>
+      </c>
       <c r="E179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -7465,9 +7477,13 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D225" t="inlineStr"/>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>https://lionsher.com/careers/careers</t>
+        </is>
+      </c>
       <c r="E225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -8636,7 +8652,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>['senior python software engineer (contract, poland)poland (https://job-boards.greenhouse.io/nearform/jobs/6664605003)', 'senior python software engineer (contract, romania)romania (https://job-boards.greenhouse.io/nearform/jobs/6520737003)', 'senior python software engineer (perm, ireland)ireland (https://job-boards.greenhouse.io/nearform/jobs/7497040003)', 'senior python software engineer (perm, italy)italy (https://job-boards.greenhouse.io/nearform/jobs/6520733003)', 'senior python software engineer (perm, uk)uk (https://job-boards.greenhouse.io/nearform/jobs/6678114003)']</t>
+          <t>['senior python software engineer (contract or perm, romania)romania (https://job-boards.greenhouse.io/nearform/jobs/6520737003)', 'senior python software engineer (contract, poland)poland (https://job-boards.greenhouse.io/nearform/jobs/6664605003)', 'senior python software engineer (perm, ireland)ireland (https://job-boards.greenhouse.io/nearform/jobs/7497040003)', 'senior python software engineer (perm, italy)italy (https://job-boards.greenhouse.io/nearform/jobs/6520733003)', 'senior python software engineer (perm, uk)uk (https://job-boards.greenhouse.io/nearform/jobs/6678114003)']</t>
         </is>
       </c>
       <c r="G262" t="b">
@@ -9572,17 +9588,21 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D292" t="inlineStr"/>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>https://platform.sh/careers</t>
+        </is>
+      </c>
       <c r="E292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['python (https://platform.sh/careers/python/)']</t>
         </is>
       </c>
       <c r="G292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -10564,9 +10584,13 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D324" t="inlineStr"/>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>https://replit.com/careers</t>
+        </is>
+      </c>
       <c r="E324" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
@@ -10940,9 +10964,13 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D336" t="inlineStr"/>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>https://scopicsoftware.com/careers</t>
+        </is>
+      </c>
       <c r="E336" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>
@@ -12312,9 +12340,13 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D380" t="inlineStr"/>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>https://taskade.com/jobs</t>
+        </is>
+      </c>
       <c r="E380" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F380" t="inlineStr">
         <is>
@@ -13242,13 +13274,9 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D410" t="inlineStr">
-        <is>
-          <t>https://viperdev.io/jobs</t>
-        </is>
-      </c>
+      <c r="D410" t="inlineStr"/>
       <c r="E410" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F410" t="inlineStr">
         <is>

--- a/remote_companies_with_python_jobs_cached.xlsx
+++ b/remote_companies_with_python_jobs_cached.xlsx
@@ -3768,11 +3768,11 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>['data analyst, financemultiple locationsproduct analyticsfulltime (http://www.deel.com/careers/careers/position/?ashby_jid=4d901a14-09e5-4350-943f-9a788071a306)']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -6045,11 +6045,11 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['marketingdata analystlocationmaastrichtlearn more (https://honeycomb.tv/careers/./careers/data-analyst)', 'marketingdata scientistlocationmaastrichtlearn more (https://honeycomb.tv/careers/./careers/data-scientist)']</t>
         </is>
       </c>
       <c r="G179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -7739,11 +7739,11 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['senior python developerremote romaniaromania (https://www.luxoft.com/careers/jobs/senior-python-developer-18939)', 'senior python developeriasiromania (https://www.luxoft.com/careers/jobs/senior-python-developer-18938)', 'senior python developerbucharestromania (https://www.luxoft.com/careers/jobs/senior-python-developer-18937)', 'senior python developerpythonremote romaniaromania (https://www.luxoft.com/careers/jobs/senior-python-developer-18939)', 'senior python developerpythoniasiromania (https://www.luxoft.com/careers/jobs/senior-python-developer-18938)', 'senior python developerpythonbucharestromania (https://www.luxoft.com/careers/jobs/senior-python-developer-18937)']</t>
         </is>
       </c>
       <c r="G233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -13518,13 +13518,9 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D418" t="inlineStr">
-        <is>
-          <t>https://wildbit.com/jobs</t>
-        </is>
-      </c>
+      <c r="D418" t="inlineStr"/>
       <c r="E418" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F418" t="inlineStr">
         <is>

--- a/remote_companies_with_python_jobs_cached.xlsx
+++ b/remote_companies_with_python_jobs_cached.xlsx
@@ -6045,7 +6045,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>['marketingdata analystlocationmaastrichtlearn more (https://honeycomb.tv/careers/./careers/data-analyst)', 'marketingdata scientistlocationmaastrichtlearn more (https://honeycomb.tv/careers/./careers/data-scientist)']</t>
+          <t>['marketingdata analystlocationmaastrichtemploymentpart time (https://honeycomb.tv/careers/./careers/data-analyst)', 'marketingdata analystlocationmaastrichtemploymentpart time (https://honeycomb.tv/careers/./careers/data-analyst)', 'marketingdata analystlocationmaastrichtemploymentpart time (https://honeycomb.tv/careers/./careers/data-analyst)', 'marketingdata scientistlocationmaastrichtemploymentpart time (https://honeycomb.tv/careers/./careers/data-scientist)', 'marketingdata scientistlocationmaastrichtemploymentpart time (https://honeycomb.tv/careers/./careers/data-scientist)', 'marketingdata scientistlocationmaastrichtemploymentpart time (https://honeycomb.tv/careers/./careers/data-scientist)']</t>
         </is>
       </c>
       <c r="G179" t="b">
@@ -7739,7 +7739,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>['senior python developerremote romaniaromania (https://www.luxoft.com/careers/jobs/senior-python-developer-18939)', 'senior python developeriasiromania (https://www.luxoft.com/careers/jobs/senior-python-developer-18938)', 'senior python developerbucharestromania (https://www.luxoft.com/careers/jobs/senior-python-developer-18937)', 'senior python developerpythonremote romaniaromania (https://www.luxoft.com/careers/jobs/senior-python-developer-18939)', 'senior python developerpythoniasiromania (https://www.luxoft.com/careers/jobs/senior-python-developer-18938)', 'senior python developerpythonbucharestromania (https://www.luxoft.com/careers/jobs/senior-python-developer-18937)']</t>
+          <t>['data scientistremote indiaindia (https://www.luxoft.com/careers/jobs/data-scientist-18986)', 'data scientistremote egyptegypt (https://www.luxoft.com/careers/jobs/data-scientist-18985)', 'data scientistdata scienceremote indiaindia (https://www.luxoft.com/careers/jobs/data-scientist-18986)', 'data scientistdata scienceremote egyptegypt (https://www.luxoft.com/careers/jobs/data-scientist-18985)']</t>
         </is>
       </c>
       <c r="G233" t="b">

--- a/remote_companies_with_python_jobs_cached.xlsx
+++ b/remote_companies_with_python_jobs_cached.xlsx
@@ -3636,7 +3636,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>['python for data science (https://datasciencedojo.com/data-science-bootcamp/)', 'python for data science (https://datasciencedojo.com/python-for-data-science/)']</t>
+          <t>['python for data science (https://datasciencedojo.com/python-for-data-science/)', 'python for data science (https://datasciencedojo.com/python-for-data-science/)']</t>
         </is>
       </c>
       <c r="G102" t="b">
@@ -7739,11 +7739,11 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>['data scientistremote indiaindia (https://www.luxoft.com/careers/jobs/data-scientist-18986)', 'data scientistremote egyptegypt (https://www.luxoft.com/careers/jobs/data-scientist-18985)', 'data scientistdata scienceremote indiaindia (https://www.luxoft.com/careers/jobs/data-scientist-18986)', 'data scientistdata scienceremote egyptegypt (https://www.luxoft.com/careers/jobs/data-scientist-18985)']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -13518,9 +13518,13 @@
           <t>worldwide</t>
         </is>
       </c>
-      <c r="D418" t="inlineStr"/>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>https://wildbit.com/jobs</t>
+        </is>
+      </c>
       <c r="E418" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F418" t="inlineStr">
         <is>
